--- a/doc/2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
+++ b/doc/2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="jakFuAtL6B2bZJ5WN22KK5aLrYaaU2wJEW8QS2Z12Uk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Z716iSdmxzGZJth74ksrgcadXZbWZi1+YllMFc4q0DU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -519,37 +519,16 @@
     <t xml:space="preserve"> 2.1 初期表示時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-1. （出演者情報）、（対象週情報）を初期化する。</t>
+    <t xml:space="preserve">　　2-2-1. API「タレント週間出演情報検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-2. バリデーションチェックとして、以下のチェックを行う。</t>
+    <t xml:space="preserve">　　2-2-2.【2-2-1】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
   </si>
   <si>
-    <t>① タレントID、対象年月、対象週が必須で設定されていること。</t>
+    <t xml:space="preserve">　　2-2-3.【2-2-1】で取得した結果がない場合は、対象週(FROM)～対象週(TO)とヘッダーのみを表示させる。</t>
   </si>
   <si>
-    <t>② 対象年月がYYYY/MM形式であること。</t>
-  </si>
-  <si>
-    <t>③ 対象週が数値かつ、1～5の数値のいずれかであること。</t>
-  </si>
-  <si>
-    <t>④ タレントIDが8桁以内であること。</t>
-  </si>
-  <si>
-    <t>※上記のチェック結果を画面上部に表示する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-3. API「タレント週間出演情報検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-4.【2-2-3】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-5.【2-2-4】で取得した結果がない場合は、対象週(FROM)～対象週(TO)とヘッダーのみを表示させる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-6.【2-2-4】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
+    <t xml:space="preserve">　　2-2-4.【2-2-1】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 番組名クリック時</t>
@@ -571,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -595,11 +574,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -774,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -942,12 +916,6 @@
     </xf>
     <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -30993,162 +30961,59 @@
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1"/>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="C16" s="53" t="s">
+    <row r="16" ht="18.75" customHeight="1"/>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57" t="s">
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57" t="s">
+    </row>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57" t="s">
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="56" t="s">
         <v>123</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="C20" s="57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1"/>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="58" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1"/>
     <row r="24" ht="18.75" customHeight="1">
       <c r="B24" s="53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="53" t="s">
-        <v>127</v>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="B25" s="53" t="s">
+        <v>125</v>
       </c>
     </row>
+    <row r="26" ht="18.75" customHeight="1"/>
     <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="53" t="s">
-        <v>128</v>
-      </c>
-    </row>
+    <row r="28" ht="18.75" customHeight="1"/>
     <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="58" t="s">
-        <v>130</v>
-      </c>
-    </row>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1"/>
     <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="53" t="s">
-        <v>132</v>
-      </c>
-    </row>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
     <row r="35" ht="18.75" customHeight="1"/>
     <row r="36" ht="18.75" customHeight="1"/>
     <row r="37" ht="18.75" customHeight="1"/>
@@ -32102,15 +31967,6 @@
     <row r="985" ht="18.75" customHeight="1"/>
     <row r="986" ht="18.75" customHeight="1"/>
     <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:C2"/>

--- a/doc/2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
+++ b/doc/2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Z716iSdmxzGZJth74ksrgcadXZbWZi1+YllMFc4q0DU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="wwPcqlJVpNYT/CtMD3xfW28PO7Og5W8LWup2dRKOd7c="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -68,14 +68,35 @@
     <t>遷移時のパラメータ名の変更</t>
   </si>
   <si>
+    <t>データグリッドに列「ID」を追加
+対象年月・週を追加</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
   </si>
   <si>
-    <t>・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、対象週とタレントで検索を行い、検索結果を表示する。
-・番組のリンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、対象週とタレントで検索を行い、検索結果を表示する。
+・番組のリンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>・IDのリンクボタンをクリック時に、次画面「オンエア管理登録（更新モード）」へ遷移する。
+・対象年月・週のリンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+    </r>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -126,6 +147,12 @@
     <t>検索条件部と番組検索結果を表示する。</t>
   </si>
   <si>
+    <t>IDクリック時</t>
+  </si>
+  <si>
+    <t>リンクボタンをクリック時に、次画面「オンエア管理登録（更新モード）」へ遷移する。</t>
+  </si>
+  <si>
     <t>番組名クリック時</t>
   </si>
   <si>
@@ -136,6 +163,12 @@
   </si>
   <si>
     <t>ページングリンククリック時に、次の10件、前の10件へ遷移できるようにする。</t>
+  </si>
+  <si>
+    <t>対象年月・週クリック時</t>
+  </si>
+  <si>
+    <t>リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
   </si>
   <si>
     <t>4.【フォーム情報】</t>
@@ -272,6 +305,33 @@
     <t>（対象週情報）</t>
   </si>
   <si>
+    <t>対象年月・週</t>
+  </si>
+  <si>
+    <t>linkbutton</t>
+  </si>
+  <si>
+    <t>IDにリンクボタンの設定を行う。
+クリック時にキーを渡して、画面遷移する。
+（形式： 対象年月(YYYY/MM) W週）</t>
+  </si>
+  <si>
+    <t>パラメータ
+パラメータ</t>
+  </si>
+  <si>
+    <t>年月
+週</t>
+  </si>
+  <si>
+    <t>文字列
+文字列</t>
+  </si>
+  <si>
+    <t>６桁（YYYYMM)
+１桁</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="游ゴシック"/>
@@ -346,13 +406,20 @@
     <t>（検索条件）</t>
   </si>
   <si>
-    <t>出演番組</t>
+    <t>ID</t>
   </si>
   <si>
     <t>ヘッダー</t>
   </si>
   <si>
-    <t>linkbutton</t>
+    <t>IDにリンクボタンの設定を行う。
+クリック時にキーを渡して、画面遷移する。</t>
+  </si>
+  <si>
+    <t>オンエア管理テーブル</t>
+  </si>
+  <si>
+    <t>出演番組</t>
   </si>
   <si>
     <t>番組名にリンクボタンの設定を行う。
@@ -436,9 +503,6 @@
   </si>
   <si>
     <t>対象の出演者が対象週に出演する番組名のオンエア日の日付のみを表示する。</t>
-  </si>
-  <si>
-    <t>オンエア管理テーブル</t>
   </si>
   <si>
     <t>日付型</t>
@@ -537,10 +601,22 @@
     <t xml:space="preserve">　　2-2-1.番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3 ページングリンククリック時</t>
+    <t xml:space="preserve"> 2.3 IDクリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-3-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+    <t xml:space="preserve">　　2-3-1.IDをキーとして、次画面「オンエア管理登録（更新モード）」」へ遷移する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4 ページングリンククリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-4-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 対象年月・週クリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-5-1. リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -550,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -569,12 +645,36 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -748,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -788,7 +888,7 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -803,7 +903,10 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -819,7 +922,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -842,6 +945,12 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -854,35 +963,62 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -893,7 +1029,7 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -905,10 +1041,10 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -917,8 +1053,17 @@
     <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,12 +1081,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9020175" cy="5219700"/>
+    <xdr:ext cx="9124950" cy="5305425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="画像"/>
@@ -1239,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="13">
-        <v>45129.0</v>
+        <v>45317.0</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>9</v>
@@ -1295,7 +1440,7 @@
       <c r="B6" s="17">
         <v>2.0</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="13">
         <v>45129.0</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1305,11 +1450,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+    <row r="7" ht="33.0" customHeight="1">
+      <c r="B7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>45317.0</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="B8" s="15"/>
@@ -2458,13 +2611,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2498,13 +2651,13 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="11">
         <v>45043.0</v>
       </c>
@@ -2512,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="13">
-        <v>45129.0</v>
+        <v>45317.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -2562,7 +2715,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3320,7 +3473,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3349,8 +3502,8 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="23" t="s">
-        <v>18</v>
+      <c r="B32" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3379,8 +3532,8 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3402,13 +3555,8 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="B34" s="25"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3430,13 +3578,13 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3458,9 +3606,7 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -3488,15 +3634,11 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3522,14 +3664,14 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3556,14 +3698,14 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="27" t="s">
-        <v>26</v>
+      <c r="B39" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3590,14 +3732,14 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="27" t="s">
-        <v>28</v>
+      <c r="B40" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3624,9 +3766,15 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3652,11 +3800,9 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3682,13 +3828,11 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="21"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3712,15 +3856,15 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="33.75" customHeight="1">
+    <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3744,15 +3888,15 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="48.0" customHeight="1">
+    <row r="45" ht="33.75" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3776,15 +3920,15 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" ht="38.25" customHeight="1">
+    <row r="46" ht="48.0" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3808,11 +3952,15 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="16.5" customHeight="1">
+    <row r="47" ht="48.0" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3836,18 +3984,18 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" ht="38.25" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>39</v>
+      <c r="B48" s="34" t="s">
+        <v>40</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="22"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -3868,18 +4016,18 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="16.5" customHeight="1">
+    <row r="49" ht="48.0" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>41</v>
+      <c r="B49" s="32" t="s">
+        <v>42</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="22"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3902,32 +4050,16 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3944,24 +4076,22 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="94.5" customHeight="1">
+    <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="31" t="s">
-        <v>47</v>
+      <c r="B51" s="6" t="s">
+        <v>44</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="G51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3980,12 +4110,16 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4008,20 +4142,32 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>50</v>
+      <c r="H53" s="27" t="s">
+        <v>51</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="I53" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -4038,34 +4184,24 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" ht="94.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="26" t="s">
-        <v>42</v>
+      <c r="B54" s="34" t="s">
+        <v>52</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>43</v>
+      <c r="C54" s="12" t="s">
+        <v>53</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>44</v>
+      <c r="D54" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4084,22 +4220,16 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4116,32 +4246,22 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" ht="39.75" customHeight="1">
+    <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="12" t="s">
-        <v>48</v>
+      <c r="B56" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="D56" s="31" t="s">
-        <v>53</v>
-      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="35" t="s">
+      <c r="G56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I56" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4160,22 +4280,32 @@
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="33" t="s">
-        <v>58</v>
+      <c r="B57" s="27" t="s">
+        <v>47</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>52</v>
+      <c r="D57" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
+      <c r="G57" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4192,32 +4322,24 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="84.75" customHeight="1">
+    <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="34"/>
+      <c r="B58" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="C58" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>59</v>
+      <c r="D58" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>64</v>
-      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -4234,18 +4356,32 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" ht="16.5" customHeight="1">
+    <row r="59" ht="39.75" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>58</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="G59" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4264,20 +4400,22 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
-        <v>65</v>
+      <c r="B60" s="36" t="s">
+        <v>63</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -4294,33 +4432,31 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" ht="16.5" customHeight="1">
+    <row r="61" ht="84.75" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="26" t="s">
-        <v>42</v>
+      <c r="B61" s="37"/>
+      <c r="C61" s="12" t="s">
+        <v>53</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>44</v>
+      <c r="D61" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="26" t="s">
-        <v>45</v>
+      <c r="G61" s="39" t="s">
+        <v>65</v>
       </c>
-      <c r="H61" s="26" t="s">
-        <v>46</v>
+      <c r="H61" s="39" t="s">
+        <v>66</v>
       </c>
-      <c r="I61" s="26" t="s">
-        <v>21</v>
+      <c r="I61" s="39" t="s">
+        <v>67</v>
       </c>
-      <c r="J61" s="26" t="s">
-        <v>22</v>
+      <c r="J61" s="39" t="s">
+        <v>68</v>
       </c>
-      <c r="K61" s="26" t="s">
-        <v>44</v>
+      <c r="K61" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -4338,34 +4474,18 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" ht="36.75" customHeight="1">
+    <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>67</v>
-      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4384,22 +4504,20 @@
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="12" t="s">
-        <v>73</v>
+      <c r="B63" s="6" t="s">
+        <v>70</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
+      <c r="G63" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4416,33 +4534,33 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="35.25" customHeight="1">
+    <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="12" t="s">
-        <v>74</v>
+      <c r="B64" s="27" t="s">
+        <v>47</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>75</v>
+      <c r="D64" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="42" t="s">
-        <v>68</v>
+      <c r="G64" s="27" t="s">
+        <v>50</v>
       </c>
-      <c r="H64" s="43" t="s">
-        <v>76</v>
+      <c r="H64" s="27" t="s">
+        <v>51</v>
       </c>
-      <c r="I64" s="43" t="s">
-        <v>70</v>
+      <c r="I64" s="27" t="s">
+        <v>22</v>
       </c>
-      <c r="J64" s="43" t="s">
-        <v>71</v>
+      <c r="J64" s="27" t="s">
+        <v>23</v>
       </c>
-      <c r="K64" s="44" t="s">
-        <v>77</v>
+      <c r="K64" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -4460,18 +4578,32 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="65" ht="42.75" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="B65" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J65" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="46"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4488,22 +4620,34 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" ht="36.75" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="C66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6" t="s">
-        <v>79</v>
+      <c r="G66" s="38" t="s">
+        <v>80</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="H66" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66" s="48" t="s">
+        <v>84</v>
+      </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4522,32 +4666,22 @@
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="26" t="s">
-        <v>42</v>
+      <c r="B67" s="12" t="s">
+        <v>85</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>43</v>
+      <c r="C67" s="12" t="s">
+        <v>53</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>44</v>
+      <c r="D67" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -4564,24 +4698,34 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" ht="16.5" customHeight="1">
+    <row r="68" ht="35.25" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="33" t="s">
-        <v>80</v>
+      <c r="B68" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>81</v>
+      <c r="D68" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
+      <c r="G68" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K68" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4598,32 +4742,18 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" ht="67.5" customHeight="1">
+    <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>83</v>
-      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="J69" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="K69" s="48" t="s">
-        <v>88</v>
-      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4642,22 +4772,20 @@
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="33" t="s">
-        <v>89</v>
+      <c r="B70" s="6" t="s">
+        <v>90</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
+      <c r="G70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4674,31 +4802,33 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="112.5" customHeight="1">
+    <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>90</v>
+      <c r="D71" s="27" t="s">
+        <v>49</v>
       </c>
-      <c r="E71" s="49"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="36" t="s">
-        <v>91</v>
+      <c r="G71" s="27" t="s">
+        <v>50</v>
       </c>
-      <c r="H71" s="36" t="s">
-        <v>92</v>
+      <c r="H71" s="27" t="s">
+        <v>51</v>
       </c>
-      <c r="I71" s="36" t="s">
-        <v>93</v>
+      <c r="I71" s="27" t="s">
+        <v>22</v>
       </c>
-      <c r="J71" s="36" t="s">
-        <v>94</v>
+      <c r="J71" s="27" t="s">
+        <v>23</v>
       </c>
-      <c r="K71" s="48" t="s">
-        <v>95</v>
+      <c r="K71" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -4718,22 +4848,22 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="33" t="s">
-        <v>96</v>
+      <c r="B72" s="54" t="s">
+        <v>92</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>48</v>
+      <c r="C72" s="55" t="s">
+        <v>53</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>81</v>
+      <c r="D72" s="55" t="s">
+        <v>93</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4750,32 +4880,30 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" ht="55.5" customHeight="1">
+    <row r="73" ht="42.75" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="12" t="s">
-        <v>48</v>
+      <c r="B73" s="57"/>
+      <c r="C73" s="42" t="s">
+        <v>72</v>
       </c>
-      <c r="D73" s="47" t="s">
-        <v>97</v>
+      <c r="D73" s="43" t="s">
+        <v>94</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="35" t="s">
-        <v>98</v>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="45" t="s">
+        <v>95</v>
       </c>
-      <c r="H73" s="36" t="s">
-        <v>96</v>
+      <c r="H73" s="45" t="s">
+        <v>92</v>
       </c>
-      <c r="I73" s="36" t="s">
-        <v>99</v>
+      <c r="I73" s="45" t="s">
+        <v>25</v>
       </c>
-      <c r="J73" s="36" t="s">
-        <v>71</v>
+      <c r="J73" s="45" t="s">
+        <v>26</v>
       </c>
-      <c r="K73" s="48" t="s">
-        <v>100</v>
-      </c>
+      <c r="K73" s="46"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4794,22 +4922,22 @@
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="33" t="s">
-        <v>101</v>
+      <c r="B74" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4826,31 +4954,31 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" ht="66.0" customHeight="1">
-      <c r="A75" s="50"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="12" t="s">
-        <v>48</v>
+    <row r="75" ht="67.5" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58" t="s">
+        <v>72</v>
       </c>
-      <c r="D75" s="47" t="s">
-        <v>102</v>
+      <c r="D75" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="35" t="s">
+      <c r="G75" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H75" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="36" t="s">
+      <c r="H75" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J75" s="36" t="s">
-        <v>103</v>
+      <c r="I75" s="39" t="s">
+        <v>100</v>
       </c>
-      <c r="K75" s="48" t="s">
-        <v>104</v>
+      <c r="J75" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K75" s="60" t="s">
+        <v>102</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -4870,22 +4998,22 @@
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="33" t="s">
-        <v>105</v>
+      <c r="B76" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4902,31 +5030,31 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" ht="100.5" customHeight="1">
-      <c r="A77" s="50"/>
-      <c r="B77" s="34"/>
+    <row r="77" ht="112.5" customHeight="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="61"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="36" t="s">
+      <c r="I77" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="J77" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I77" s="36" t="s">
+      <c r="K77" s="60" t="s">
         <v>109</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="K77" s="48" t="s">
-        <v>111</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -4944,24 +5072,24 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" ht="59.25" customHeight="1">
-      <c r="A78" s="50"/>
-      <c r="B78" s="51" t="s">
-        <v>112</v>
+    <row r="78" ht="16.5" customHeight="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
-      <c r="D78" s="31" t="s">
-        <v>113</v>
+      <c r="D78" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -4978,18 +5106,32 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="16.5" customHeight="1">
+    <row r="79" ht="55.5" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>111</v>
+      </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
+      <c r="G79" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K79" s="60" t="s">
+        <v>113</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5008,16 +5150,22 @@
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="B80" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5034,18 +5182,32 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+    <row r="81" ht="66.0" customHeight="1">
+      <c r="A81" s="62"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>115</v>
+      </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="G81" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K81" s="60" t="s">
+        <v>117</v>
+      </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5064,16 +5226,22 @@
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5090,18 +5258,32 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+    <row r="83" ht="100.5" customHeight="1">
+      <c r="A83" s="62"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>119</v>
+      </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="G83" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="H83" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I83" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J83" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="60" t="s">
+        <v>124</v>
+      </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -5118,18 +5300,24 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+    <row r="84" ht="59.25" customHeight="1">
+      <c r="A84" s="62"/>
+      <c r="B84" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>126</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5153,11 +5341,11 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -30766,23 +30954,194 @@
       <c r="Y999" s="6"/>
       <c r="Z999" s="6"/>
     </row>
+    <row r="1000" ht="16.5" customHeight="1">
+      <c r="A1000" s="6"/>
+      <c r="B1000" s="6"/>
+      <c r="C1000" s="6"/>
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="6"/>
+      <c r="F1000" s="6"/>
+      <c r="G1000" s="6"/>
+      <c r="H1000" s="6"/>
+      <c r="I1000" s="6"/>
+      <c r="J1000" s="6"/>
+      <c r="K1000" s="6"/>
+      <c r="L1000" s="6"/>
+      <c r="M1000" s="6"/>
+      <c r="N1000" s="6"/>
+      <c r="O1000" s="6"/>
+      <c r="P1000" s="6"/>
+      <c r="Q1000" s="6"/>
+      <c r="R1000" s="6"/>
+      <c r="S1000" s="6"/>
+      <c r="T1000" s="6"/>
+      <c r="U1000" s="6"/>
+      <c r="V1000" s="6"/>
+      <c r="W1000" s="6"/>
+      <c r="X1000" s="6"/>
+      <c r="Y1000" s="6"/>
+      <c r="Z1000" s="6"/>
+    </row>
+    <row r="1001" ht="16.5" customHeight="1">
+      <c r="A1001" s="6"/>
+      <c r="B1001" s="6"/>
+      <c r="C1001" s="6"/>
+      <c r="D1001" s="6"/>
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="6"/>
+      <c r="G1001" s="6"/>
+      <c r="H1001" s="6"/>
+      <c r="I1001" s="6"/>
+      <c r="J1001" s="6"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="6"/>
+      <c r="N1001" s="6"/>
+      <c r="O1001" s="6"/>
+      <c r="P1001" s="6"/>
+      <c r="Q1001" s="6"/>
+      <c r="R1001" s="6"/>
+      <c r="S1001" s="6"/>
+      <c r="T1001" s="6"/>
+      <c r="U1001" s="6"/>
+      <c r="V1001" s="6"/>
+      <c r="W1001" s="6"/>
+      <c r="X1001" s="6"/>
+      <c r="Y1001" s="6"/>
+      <c r="Z1001" s="6"/>
+    </row>
+    <row r="1002" ht="16.5" customHeight="1">
+      <c r="A1002" s="6"/>
+      <c r="B1002" s="6"/>
+      <c r="C1002" s="6"/>
+      <c r="D1002" s="6"/>
+      <c r="E1002" s="6"/>
+      <c r="F1002" s="6"/>
+      <c r="G1002" s="6"/>
+      <c r="H1002" s="6"/>
+      <c r="I1002" s="6"/>
+      <c r="J1002" s="6"/>
+      <c r="K1002" s="6"/>
+      <c r="L1002" s="6"/>
+      <c r="M1002" s="6"/>
+      <c r="N1002" s="6"/>
+      <c r="O1002" s="6"/>
+      <c r="P1002" s="6"/>
+      <c r="Q1002" s="6"/>
+      <c r="R1002" s="6"/>
+      <c r="S1002" s="6"/>
+      <c r="T1002" s="6"/>
+      <c r="U1002" s="6"/>
+      <c r="V1002" s="6"/>
+      <c r="W1002" s="6"/>
+      <c r="X1002" s="6"/>
+      <c r="Y1002" s="6"/>
+      <c r="Z1002" s="6"/>
+    </row>
+    <row r="1003" ht="16.5" customHeight="1">
+      <c r="A1003" s="6"/>
+      <c r="B1003" s="6"/>
+      <c r="C1003" s="6"/>
+      <c r="D1003" s="6"/>
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="6"/>
+      <c r="G1003" s="6"/>
+      <c r="H1003" s="6"/>
+      <c r="I1003" s="6"/>
+      <c r="J1003" s="6"/>
+      <c r="K1003" s="6"/>
+      <c r="L1003" s="6"/>
+      <c r="M1003" s="6"/>
+      <c r="N1003" s="6"/>
+      <c r="O1003" s="6"/>
+      <c r="P1003" s="6"/>
+      <c r="Q1003" s="6"/>
+      <c r="R1003" s="6"/>
+      <c r="S1003" s="6"/>
+      <c r="T1003" s="6"/>
+      <c r="U1003" s="6"/>
+      <c r="V1003" s="6"/>
+      <c r="W1003" s="6"/>
+      <c r="X1003" s="6"/>
+      <c r="Y1003" s="6"/>
+      <c r="Z1003" s="6"/>
+    </row>
+    <row r="1004" ht="16.5" customHeight="1">
+      <c r="A1004" s="6"/>
+      <c r="B1004" s="6"/>
+      <c r="C1004" s="6"/>
+      <c r="D1004" s="6"/>
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="6"/>
+      <c r="G1004" s="6"/>
+      <c r="H1004" s="6"/>
+      <c r="I1004" s="6"/>
+      <c r="J1004" s="6"/>
+      <c r="K1004" s="6"/>
+      <c r="L1004" s="6"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="6"/>
+      <c r="R1004" s="6"/>
+      <c r="S1004" s="6"/>
+      <c r="T1004" s="6"/>
+      <c r="U1004" s="6"/>
+      <c r="V1004" s="6"/>
+      <c r="W1004" s="6"/>
+      <c r="X1004" s="6"/>
+      <c r="Y1004" s="6"/>
+      <c r="Z1004" s="6"/>
+    </row>
+    <row r="1005" ht="16.5" customHeight="1">
+      <c r="A1005" s="6"/>
+      <c r="B1005" s="6"/>
+      <c r="C1005" s="6"/>
+      <c r="D1005" s="6"/>
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="6"/>
+      <c r="G1005" s="6"/>
+      <c r="H1005" s="6"/>
+      <c r="I1005" s="6"/>
+      <c r="J1005" s="6"/>
+      <c r="K1005" s="6"/>
+      <c r="L1005" s="6"/>
+      <c r="M1005" s="6"/>
+      <c r="N1005" s="6"/>
+      <c r="O1005" s="6"/>
+      <c r="P1005" s="6"/>
+      <c r="Q1005" s="6"/>
+      <c r="R1005" s="6"/>
+      <c r="S1005" s="6"/>
+      <c r="T1005" s="6"/>
+      <c r="U1005" s="6"/>
+      <c r="V1005" s="6"/>
+      <c r="W1005" s="6"/>
+      <c r="X1005" s="6"/>
+      <c r="Y1005" s="6"/>
+      <c r="Z1005" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B32:H34"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B32:H35"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30821,13 +31180,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -30861,13 +31220,13 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="11">
         <v>45047.0</v>
       </c>
@@ -30875,7 +31234,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="13">
-        <v>45129.0</v>
+        <v>45317.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -30896,123 +31255,165 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="53" t="s">
-        <v>114</v>
+      <c r="B4" s="65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="D5" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
       <c r="B6" s="15">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>115</v>
+      <c r="D6" s="31" t="s">
+        <v>128</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
       <c r="B7" s="15">
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="60.75" customHeight="1">
+      <c r="B8" s="68">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="60.75" customHeight="1">
-      <c r="B8" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>38</v>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="60.75" customHeight="1">
+      <c r="B9" s="15">
+        <v>4.0</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1"/>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="53" t="s">
-        <v>116</v>
+      <c r="C9" s="12" t="s">
+        <v>40</v>
       </c>
+      <c r="D9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="40.5" customHeight="1">
+      <c r="B10" s="68">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="18.75" customHeight="1"/>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="53" t="s">
-        <v>117</v>
+      <c r="B12" s="65" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="56" t="s">
-        <v>118</v>
+    <row r="13" ht="18.75" customHeight="1"/>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="65" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1"/>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="56" t="s">
-        <v>119</v>
+      <c r="B15" s="69" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="56" t="s">
-        <v>120</v>
+      <c r="B17" s="69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1"/>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="56" t="s">
-        <v>121</v>
+      <c r="B19" s="69" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1"/>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="53" t="s">
-        <v>122</v>
+      <c r="B21" s="69" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="56" t="s">
-        <v>123</v>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="B23" s="65" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1"/>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="53" t="s">
-        <v>124</v>
+      <c r="B24" s="69" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="53" t="s">
-        <v>125</v>
+    <row r="25" ht="18.75" customHeight="1"/>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="B26" s="70" t="s">
+        <v>137</v>
       </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1"/>
-    <row r="27" ht="18.75" customHeight="1"/>
+      <c r="C26" s="71"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="B27" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="71"/>
+    </row>
     <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="B29" s="69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="B30" s="69" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="B32" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="71"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="B33" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="71"/>
+    </row>
     <row r="34" ht="18.75" customHeight="1"/>
     <row r="35" ht="18.75" customHeight="1"/>
     <row r="36" ht="18.75" customHeight="1"/>
@@ -31967,8 +32368,10 @@
     <row r="985" ht="18.75" customHeight="1"/>
     <row r="986" ht="18.75" customHeight="1"/>
     <row r="987" ht="18.75" customHeight="1"/>
+    <row r="988" ht="18.75" customHeight="1"/>
+    <row r="989" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -31976,6 +32379,8 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
